--- a/inst/extdata/Margherita-metadata_hec.xlsx
+++ b/inst/extdata/Margherita-metadata_hec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emosca/Google Drive/FROM_HOME/PROMEFA/margheRita/rstudio-export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emosca/Google Drive (ettore.mosca.cnr@gmail.com)/FROM_HOME/PROMEFA/margheRita/rstudio-export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CE7DA6-9D99-984F-83BA-9B618D15C4BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B857EC00-BB88-AB48-9446-24FD698177C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="1540" windowWidth="29180" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="391">
   <si>
     <t>id</t>
   </si>
@@ -403,9 +403,6 @@
     <t>x010</t>
   </si>
   <si>
-    <t>BAL</t>
-  </si>
-  <si>
     <t>STAND</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>x011</t>
   </si>
   <si>
-    <t>NOD</t>
-  </si>
-  <si>
     <t>m12</t>
   </si>
   <si>
@@ -1190,6 +1184,15 @@
   </si>
   <si>
     <t>x038_QC_10_pos_2</t>
+  </si>
+  <si>
+    <t>BAL_STAND</t>
+  </si>
+  <si>
+    <t>NOD_STAND</t>
+  </si>
+  <si>
+    <t>NOD_OMEGA</t>
   </si>
 </sst>
 </file>
@@ -2050,8 +2053,8 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2063,8 @@
     <col min="2" max="2" width="18.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2082,13 +2086,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
@@ -2097,13 +2101,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2111,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>126</v>
@@ -2123,57 +2127,57 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2181,34 +2185,34 @@
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2216,80 +2220,80 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2298,22 +2302,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2321,10 +2325,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2333,22 +2337,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2356,10 +2360,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2380,10 +2384,10 @@
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2391,10 +2395,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2415,21 +2419,21 @@
         <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2438,33 +2442,33 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2473,68 +2477,68 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2543,33 +2547,33 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -2578,22 +2582,22 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2601,10 +2605,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -2613,33 +2617,33 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2648,22 +2652,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2671,10 +2675,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2695,10 +2699,10 @@
         <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2706,10 +2710,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2730,21 +2734,21 @@
         <v>5</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2753,22 +2757,22 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2776,10 +2780,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -2788,33 +2792,33 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2823,33 +2827,33 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -2858,33 +2862,33 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -2893,33 +2897,33 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -2928,22 +2932,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2951,10 +2955,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2963,33 +2967,33 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -3010,10 +3014,10 @@
         <v>5</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3021,10 +3025,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -3045,21 +3049,21 @@
         <v>5</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3068,22 +3072,22 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3091,10 +3095,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -3103,33 +3107,33 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -3138,33 +3142,33 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3173,33 +3177,33 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -3208,22 +3212,22 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3231,10 +3235,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -3243,33 +3247,33 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -3278,22 +3282,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3301,10 +3305,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -3325,10 +3329,10 @@
         <v>5</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,10 +3340,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -3360,10 +3364,10 @@
         <v>5</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -3371,10 +3375,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -3383,33 +3387,33 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -3418,33 +3422,33 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -3453,33 +3457,33 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -3488,22 +3492,22 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3511,10 +3515,10 @@
         <v>48</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -3523,22 +3527,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3546,10 +3550,10 @@
         <v>49</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -3558,33 +3562,33 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -3593,22 +3597,22 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3616,10 +3620,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3640,10 +3644,10 @@
         <v>5</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3651,10 +3655,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3675,21 +3679,21 @@
         <v>5</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -3698,33 +3702,33 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -3733,33 +3737,33 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3768,33 +3772,33 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -3803,33 +3807,33 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -3838,33 +3842,33 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3873,33 +3877,33 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3908,22 +3912,22 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3931,10 +3935,10 @@
         <v>60</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -3955,10 +3959,10 @@
         <v>5</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3966,10 +3970,10 @@
         <v>61</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -3990,10 +3994,10 @@
         <v>5</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -4001,10 +4005,10 @@
         <v>62</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -4013,33 +4017,33 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -4048,22 +4052,22 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -4071,10 +4075,10 @@
         <v>64</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -4083,22 +4087,22 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -4106,10 +4110,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -4118,33 +4122,33 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -4153,33 +4157,33 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -4188,33 +4192,33 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -4223,22 +4227,22 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -4246,10 +4250,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -4270,10 +4274,10 @@
         <v>5</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -4281,10 +4285,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -4305,21 +4309,21 @@
         <v>5</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -4328,33 +4332,33 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -4363,22 +4367,22 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -4386,10 +4390,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -4398,33 +4402,33 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -4433,33 +4437,33 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -4468,33 +4472,33 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -4503,22 +4507,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -4526,10 +4530,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -4538,22 +4542,22 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -4561,10 +4565,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -4585,10 +4589,10 @@
         <v>5</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -4596,10 +4600,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -4620,21 +4624,21 @@
         <v>5</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -4643,33 +4647,33 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -4678,22 +4682,22 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4701,10 +4705,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -4713,33 +4717,33 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -4748,33 +4752,33 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -4783,22 +4787,22 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4806,10 +4810,10 @@
         <v>85</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -4818,33 +4822,33 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -4853,22 +4857,22 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4876,10 +4880,10 @@
         <v>87</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -4900,10 +4904,10 @@
         <v>5</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4911,10 +4915,10 @@
         <v>88</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -4935,10 +4939,10 @@
         <v>5</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4946,10 +4950,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -4958,33 +4962,33 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="J83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -4993,33 +4997,33 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -5028,33 +5032,33 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -5063,33 +5067,33 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -5098,22 +5102,22 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -5121,10 +5125,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -5133,33 +5137,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -5168,22 +5172,22 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -5191,10 +5195,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -5215,10 +5219,10 @@
         <v>5</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -5226,10 +5230,10 @@
         <v>97</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -5250,21 +5254,21 @@
         <v>5</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -5273,22 +5277,22 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -5296,10 +5300,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -5308,33 +5312,33 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -5343,22 +5347,22 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -5366,10 +5370,10 @@
         <v>101</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -5378,33 +5382,33 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -5413,22 +5417,22 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -5436,10 +5440,10 @@
         <v>103</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -5448,33 +5452,33 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -5483,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -5506,10 +5510,10 @@
         <v>105</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -5530,10 +5534,10 @@
         <v>5</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5541,10 +5545,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -5565,21 +5569,21 @@
         <v>5</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -5588,33 +5592,33 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -5623,22 +5627,22 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5646,10 +5650,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -5658,22 +5662,22 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I103" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5681,10 +5685,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -5693,22 +5697,22 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5716,10 +5720,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -5728,22 +5732,22 @@
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I105" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5751,10 +5755,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -5763,33 +5767,33 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -5798,22 +5802,22 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5821,10 +5825,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -5845,10 +5849,10 @@
         <v>5</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5856,10 +5860,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -5880,21 +5884,21 @@
         <v>5</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -5903,33 +5907,33 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -5938,33 +5942,33 @@
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -5973,33 +5977,33 @@
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -6008,22 +6012,22 @@
         <v>1</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -6031,10 +6035,10 @@
         <v>120</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -6043,22 +6047,22 @@
         <v>1</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -6066,10 +6070,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -6078,22 +6082,22 @@
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="I115" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -6101,10 +6105,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -6125,10 +6129,10 @@
         <v>5</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -6136,10 +6140,10 @@
         <v>123</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -6160,10 +6164,10 @@
         <v>5</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -6171,10 +6175,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -6195,10 +6199,10 @@
         <v>5</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -6206,10 +6210,10 @@
         <v>125</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -6230,10 +6234,10 @@
         <v>5</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
